--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEEKPM\Python\JD_CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07183770-6B0F-4C3D-98F5-16ADEE63BE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FC22A8-BFD9-4FF0-A316-A50BF0426615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8556" yWindow="1812" windowWidth="19032" windowHeight="11676" xr2:uid="{8F1FF4DD-A8FA-460A-AD1F-B255E322B676}"/>
   </bookViews>
@@ -415,13 +415,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,7 +740,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEEKPM\Python\JD_CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FC22A8-BFD9-4FF0-A316-A50BF0426615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FADA0D0-8B00-47F9-9491-526678613355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8556" yWindow="1812" windowWidth="19032" windowHeight="11676" xr2:uid="{8F1FF4DD-A8FA-460A-AD1F-B255E322B676}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{8F1FF4DD-A8FA-460A-AD1F-B255E322B676}"/>
   </bookViews>
   <sheets>
     <sheet name="评价概况" sheetId="1" r:id="rId1"/>
     <sheet name="好评" sheetId="4" r:id="rId2"/>
     <sheet name="中评" sheetId="2" r:id="rId3"/>
     <sheet name="差评" sheetId="3" r:id="rId4"/>
+    <sheet name="用户咨询" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">差评!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">好评!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">中评!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>好评比例</t>
   </si>
@@ -190,6 +191,30 @@
   <si>
     <t>回复
 数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +281,21 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
       <family val="2"/>
       <charset val="134"/>
@@ -357,12 +397,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +457,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,8 +469,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -739,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD78AC4E-25D6-411F-A038-D3EBD8A6F8FA}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -756,9 +815,9 @@
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -875,6 +934,13 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="17" t="e">
+        <f>SUM(B4:B6)/B3</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
@@ -898,7 +964,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1077,4 +1143,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A482118F-67E3-4C7F-AC68-04AB5CE33A34}">
+  <dimension ref="A1:AC1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="54" style="23" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" style="23" customWidth="1"/>
+    <col min="6" max="29" width="8.88671875" style="23"/>
+    <col min="30" max="16384" width="8.88671875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>